--- a/data/trans_bre/P6902-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6902-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,65%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; 37,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,54; 33,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,77; 64,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,81; 99,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,94; 135,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,91; 76,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,36; 430,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,31; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,79</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,21%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 28,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,55; 18,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,18; 42,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,33; 17,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,66; 73,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,19; 41,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,65; 148,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,51; 28,91</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,75%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,28; 17,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,82; 29,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,25; 38,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,83; 18,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,08; 43,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,32; 74,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,34; 127,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,53; 40,38</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,77%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,0; 21,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; 33,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,18; 21,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,63; 12,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,06; 53,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,81; 106,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,91; 51,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,11; 20,94</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,2; 36,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,45; 41,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,34; 34,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,65; 17,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,53; 161,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,56; 121,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,78; 77,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,03; 31,91</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>39,69</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,21%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,13; 82,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 15,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 18,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,58; 25,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 10,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 39,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,74; 44,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,79; 64,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,73; 18,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6902-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,04</t>
+          <t>34,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,65%</t>
+          <t>69,84%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 99,77</t>
+          <t>-19,18; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,31; —</t>
+          <t>-23,2; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,21%</t>
+          <t>-4,59%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 17,19</t>
+          <t>-21,44; 16,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 28,91</t>
+          <t>-25,79; 27,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>11,87%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 18,86</t>
+          <t>-7,02; 19,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,53; 40,38</t>
+          <t>-11,75; 42,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-10,06</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,77%</t>
+          <t>-16,06%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 12,17</t>
+          <t>-38,62; 9,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 20,94</t>
+          <t>-58,33; 15,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 17,46</t>
+          <t>-10,29; 18,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 31,91</t>
+          <t>-14,6; 32,06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,69</t>
+          <t>40,31</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>153,21%</t>
+          <t>158,78%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,13; 82,93</t>
+          <t>-25,7; 82,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>39,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,93</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10,67</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17,15</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18,26%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>39,5%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-2,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-0,25; 15,87</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>1,2; 18,99</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>8,58; 25,2</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; 10,59</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-19,52; 8,1</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-0,4; 39,45</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>2,74; 44,28</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>18,79; 64,0</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; 18,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-30,49; 13,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P6902-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 37,17</t>
+          <t>-17,03; 33,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-51,54; 33,0</t>
+          <t>-42,57; 37,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 64,67</t>
+          <t>-8,79; 68,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 100,0</t>
+          <t>-20,26; 93,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 135,98</t>
+          <t>-34,89; 118,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-62,91; 76,29</t>
+          <t>-55,4; 90,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 430,24</t>
+          <t>-23,08; 439,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,2; —</t>
+          <t>-23,03; —</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 28,05</t>
+          <t>-0,79; 27,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 18,38</t>
+          <t>-14,89; 18,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 42,52</t>
+          <t>5,59; 41,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 16,76</t>
+          <t>-20,07; 17,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 73,33</t>
+          <t>-1,83; 71,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 41,37</t>
+          <t>-24,29; 42,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,65; 148,14</t>
+          <t>13,06; 151,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 27,39</t>
+          <t>-25,11; 26,69</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 17,43</t>
+          <t>-11,44; 19,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 29,59</t>
+          <t>-0,96; 28,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,25; 38,95</t>
+          <t>9,18; 37,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 19,97</t>
+          <t>-7,18; 20,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 43,96</t>
+          <t>-21,52; 52,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 74,32</t>
+          <t>-1,83; 72,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,34; 127,03</t>
+          <t>20,05; 122,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 42,48</t>
+          <t>-12,02; 44,52</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 21,17</t>
+          <t>-17,17; 21,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 33,46</t>
+          <t>-7,1; 30,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 21,9</t>
+          <t>-14,07; 23,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 9,4</t>
+          <t>-38,94; 8,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 53,08</t>
+          <t>-34,13; 53,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 106,87</t>
+          <t>-14,56; 101,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 51,34</t>
+          <t>-23,78; 58,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,33; 15,52</t>
+          <t>-59,01; 13,45</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 36,4</t>
+          <t>-21,42; 34,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 41,91</t>
+          <t>-9,02; 42,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 34,22</t>
+          <t>-14,63; 32,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 18,06</t>
+          <t>-10,78; 18,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-58,53; 161,31</t>
+          <t>-65,36; 162,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,56; 121,75</t>
+          <t>-17,25; 129,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 77,45</t>
+          <t>-23,88; 73,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 32,06</t>
+          <t>-15,5; 35,19</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 82,92</t>
+          <t>-25,87; 84,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 15,87</t>
+          <t>0,27; 17,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 18,99</t>
+          <t>0,92; 19,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,58; 25,2</t>
+          <t>8,18; 26,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 8,1</t>
+          <t>-21,65; 8,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 39,45</t>
+          <t>0,72; 43,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,74; 44,28</t>
+          <t>1,92; 44,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,79; 64,0</t>
+          <t>17,1; 65,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 13,73</t>
+          <t>-32,7; 14,38</t>
         </is>
       </c>
     </row>
